--- a/DesignDocument/주간 일정표.xlsx
+++ b/DesignDocument/주간 일정표.xlsx
@@ -5,22 +5,24 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\FinalTerm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\FinalTerm\DesignDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8892D212-EDC5-47DB-8B15-E103C1A8C8BF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A30E00-D035-408A-BCE1-197E82F182E6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="18195" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="18195" windowHeight="7995" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1주" sheetId="1" r:id="rId1"/>
+    <sheet name="2주" sheetId="2" r:id="rId2"/>
+    <sheet name="3주" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
   <si>
     <t>MONDAY</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,7 +302,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -360,6 +362,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -719,6 +724,1084 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="4.625" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="4.625" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="4.625" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
+    <col min="8" max="8" width="4.625" customWidth="1"/>
+    <col min="9" max="9" width="15.125" customWidth="1"/>
+    <col min="10" max="10" width="4.625" customWidth="1"/>
+    <col min="11" max="11" width="15.125" customWidth="1"/>
+    <col min="12" max="12" width="4.625" customWidth="1"/>
+    <col min="13" max="13" width="15.125" customWidth="1"/>
+    <col min="14" max="14" width="4.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="23">
+        <v>5</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="25"/>
+    </row>
+    <row r="3" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="4">
+        <v>4</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="4">
+        <v>5</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="4">
+        <v>6</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="12"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="15"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="15"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="15"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="15"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="12"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="15"/>
+    </row>
+    <row r="14" spans="1:14" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="19"/>
+    </row>
+    <row r="15" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="7"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M18:N18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.47244094488188981" right="0.47244094488188981" top="0.59055118110236227" bottom="0.59055118110236227" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD199AD6-EAD0-482E-A2CF-1B19EE8CC933}">
+  <dimension ref="A1:N30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="4.625" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="4.625" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="4.625" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
+    <col min="8" max="8" width="4.625" customWidth="1"/>
+    <col min="9" max="9" width="15.125" customWidth="1"/>
+    <col min="10" max="10" width="4.625" customWidth="1"/>
+    <col min="11" max="11" width="15.125" customWidth="1"/>
+    <col min="12" max="12" width="4.625" customWidth="1"/>
+    <col min="13" max="13" width="15.125" customWidth="1"/>
+    <col min="14" max="14" width="4.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="23">
+        <v>5</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="25"/>
+    </row>
+    <row r="3" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="4">
+        <v>4</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="4">
+        <v>5</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="4">
+        <v>6</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="12"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="15"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="15"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="15"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="15"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="12"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="15"/>
+    </row>
+    <row r="14" spans="1:14" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="19"/>
+    </row>
+    <row r="15" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="7"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M18:N18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.47244094488188981" right="0.47244094488188981" top="0.59055118110236227" bottom="0.59055118110236227" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC049CB-FCEA-48D4-8EBC-085059C0CCEF}">
+  <dimension ref="A1:N30"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
@@ -742,42 +1825,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="22">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="23">
         <v>5</v>
       </c>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="24" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="24"/>
+      <c r="N2" s="25"/>
     </row>
     <row r="3" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -1016,36 +2099,36 @@
       <c r="N15" s="1"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
